--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl21b-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl21b-Ackr2.xlsx
@@ -537,10 +537,10 @@
         <v>0.379251</v>
       </c>
       <c r="I2">
-        <v>0.5842846710605375</v>
+        <v>0.733230478333749</v>
       </c>
       <c r="J2">
-        <v>0.6782743529807329</v>
+        <v>0.8047954435010685</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -567,10 +567,10 @@
         <v>0.317031839442</v>
       </c>
       <c r="S2">
-        <v>0.5842846710605375</v>
+        <v>0.733230478333749</v>
       </c>
       <c r="T2">
-        <v>0.6782743529807329</v>
+        <v>0.8047954435010685</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,22 +587,22 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.089945</v>
+        <v>0.045994</v>
       </c>
       <c r="H3">
-        <v>0.17989</v>
+        <v>0.091988</v>
       </c>
       <c r="I3">
-        <v>0.4157153289394626</v>
+        <v>0.266769521666251</v>
       </c>
       <c r="J3">
-        <v>0.321725647019267</v>
+        <v>0.1952045564989315</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.02506293439666667</v>
+        <v>0.01281610544933333</v>
       </c>
       <c r="R3">
-        <v>0.15037760638</v>
+        <v>0.076896632696</v>
       </c>
       <c r="S3">
-        <v>0.4157153289394626</v>
+        <v>0.266769521666251</v>
       </c>
       <c r="T3">
-        <v>0.321725647019267</v>
+        <v>0.1952045564989315</v>
       </c>
     </row>
   </sheetData>
